--- a/StructureDefinition-ext-R5-ValueSet.compose.xlsx
+++ b/StructureDefinition-ext-R5-ValueSet.compose.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -779,15 +779,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Details of how a designation would be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-designation-use-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:include.extension:concept.extension:designation.extension:additionalUse</t>
   </si>
   <si>
@@ -980,7 +971,7 @@
     <t>The kind of operation to perform as a part of a property based filter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-filter-operator-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-filter-operator-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:include.extension:filter.extension:value</t>
@@ -1057,7 +1048,7 @@
     <t>Extension.extension:include.extension:valueSet.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|0.0.1-snapshot-3|ValueSet|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|ValueSet)
 </t>
   </si>
   <si>
@@ -1511,7 +1502,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.34375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.84765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -7065,13 +7056,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7109,13 +7100,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>190</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
@@ -7140,16 +7131,16 @@
         <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7218,7 +7209,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>223</v>
@@ -7321,7 +7312,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>225</v>
@@ -7426,7 +7417,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>227</v>
@@ -7469,7 +7460,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>77</v>
@@ -7531,7 +7522,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>230</v>
@@ -7560,13 +7551,13 @@
         <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7592,13 +7583,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -7636,13 +7627,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>190</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>77</v>
@@ -7667,14 +7658,14 @@
         <v>93</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -7743,7 +7734,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>223</v>
@@ -7846,7 +7837,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>225</v>
@@ -7951,7 +7942,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>227</v>
@@ -7994,7 +7985,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>77</v>
@@ -8056,7 +8047,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>230</v>
@@ -8085,10 +8076,10 @@
         <v>87</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8159,7 +8150,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>192</v>
@@ -8202,7 +8193,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8264,7 +8255,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>195</v>
@@ -8290,13 +8281,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8367,7 +8358,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>158</v>
@@ -8410,7 +8401,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8472,7 +8463,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>161</v>
@@ -8498,13 +8489,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8575,13 +8566,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8606,16 +8597,16 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8684,7 +8675,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>154</v>
@@ -8787,7 +8778,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>156</v>
@@ -8798,7 +8789,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>83</v>
@@ -8890,13 +8881,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -8921,14 +8912,14 @@
         <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -8997,7 +8988,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>188</v>
@@ -9100,7 +9091,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>190</v>
@@ -9205,7 +9196,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>192</v>
@@ -9248,7 +9239,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9310,7 +9301,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>195</v>
@@ -9339,10 +9330,10 @@
         <v>196</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9413,13 +9404,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -9444,16 +9435,16 @@
         <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O76" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9522,7 +9513,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>188</v>
@@ -9625,7 +9616,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>190</v>
@@ -9730,7 +9721,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>192</v>
@@ -9773,7 +9764,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -9835,7 +9826,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>195</v>
@@ -9864,13 +9855,13 @@
         <v>196</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9896,13 +9887,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -9940,13 +9931,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>156</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -9971,16 +9962,16 @@
         <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10049,7 +10040,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>188</v>
@@ -10152,7 +10143,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>190</v>
@@ -10257,7 +10248,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>192</v>
@@ -10300,7 +10291,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
@@ -10362,7 +10353,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>195</v>
@@ -10391,13 +10382,13 @@
         <v>87</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10467,7 +10458,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>158</v>
@@ -10510,7 +10501,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10572,7 +10563,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>161</v>
@@ -10598,13 +10589,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10675,13 +10666,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10706,16 +10697,16 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10784,7 +10775,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>154</v>
@@ -10887,7 +10878,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>156</v>
@@ -10992,7 +10983,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>158</v>
@@ -11035,7 +11026,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11097,7 +11088,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>161</v>
@@ -11123,16 +11114,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11202,13 +11193,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11233,14 +11224,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11309,7 +11300,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>154</v>
@@ -11412,7 +11403,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>156</v>
@@ -11517,7 +11508,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>158</v>
@@ -11560,7 +11551,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11622,7 +11613,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>161</v>
@@ -11651,10 +11642,10 @@
         <v>87</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11725,7 +11716,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11768,7 +11759,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11830,7 +11821,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -11856,13 +11847,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11933,13 +11924,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11964,16 +11955,16 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O100" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12042,7 +12033,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12145,7 +12136,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12250,7 +12241,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>114</v>
@@ -12293,7 +12284,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12355,7 +12346,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -12381,13 +12372,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12458,13 +12449,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12489,16 +12480,16 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O105" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12567,7 +12558,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>106</v>
@@ -12670,7 +12661,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>108</v>
@@ -12775,7 +12766,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12818,7 +12809,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12880,7 +12871,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -12909,13 +12900,13 @@
         <v>87</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13116,13 +13107,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
